--- a/Tools/datos.xlsx
+++ b/Tools/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besugo\Documents\GitHub\ProyectoFinalDAM\Herramientas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besugo\Documents\GitHub\ProyectoFinalDAM\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F1CD2-0727-4A10-B5C6-3633FB50A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7E4F0-BE0B-4C9E-9548-FA8A3E81822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
+    <workbookView xWindow="10530" yWindow="-90" windowWidth="18375" windowHeight="9945" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>nombre</t>
   </si>
@@ -54,9 +54,6 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -69,66 +66,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Burger 3 quesos</t>
-  </si>
-  <si>
-    <t>Hamburguesa completa con una sabrosa pieza de carne de 200g, tres variedades de queso y una rodaja de pepinillo.</t>
-  </si>
-  <si>
-    <t>Para los amantes del queso</t>
-  </si>
-  <si>
-    <t>Coca Cola</t>
-  </si>
-  <si>
-    <t>Refrescante bebida servida con hielo y limón, lista para ser bebida.</t>
-  </si>
-  <si>
-    <t>Un botellín de de Coca-Cola</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>Especial con huevo</t>
-  </si>
-  <si>
-    <t>El bocadillo de la casa, ahora con huevo.</t>
-  </si>
-  <si>
-    <t>El especial de la casa, el mismo, pero con huevo. Disfruta del salado sabor combinado con el dulce de la cebolla caramelizada, ahora con una explosión de huevo.</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>Crujientes de pollo</t>
-  </si>
-  <si>
-    <t>Deliciosas tiras de pollo, rebozadas en una harina sin gluten para todos los consumidores.</t>
-  </si>
-  <si>
-    <t>Tiras de pollo rebozadas.</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Cesar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una ensalada clásica de la cocina internacional, originaria de México pero popularizada en Estados Unidos, que consiste en lechuga romana fresca y crujiente, aderezada con una salsa César cremosa y sabrosa. </t>
-  </si>
-  <si>
-    <t>Ensalada clásica de lechuga romana con aderezo César, croutons y queso parmesano.</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
     <t>idIngrediente</t>
   </si>
   <si>
@@ -136,13 +73,172 @@
   </si>
   <si>
     <t>idAlergeno</t>
+  </si>
+  <si>
+    <t>Salsa barbacoa</t>
+  </si>
+  <si>
+    <t>Beicon</t>
+  </si>
+  <si>
+    <t>Nata</t>
+  </si>
+  <si>
+    <t>orégano</t>
+  </si>
+  <si>
+    <t>Rustica</t>
+  </si>
+  <si>
+    <t>Kebab</t>
+  </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t>Titto</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bibi</t>
+  </si>
+  <si>
+    <t>BBQ Pulled Pork</t>
+  </si>
+  <si>
+    <t>Carne mechada con barbacoa, delicioso</t>
+  </si>
+  <si>
+    <t>Hamburguesa de carne de cerdo hecha a baja temperatura durante 12 horas aderezada con nuestra salsa barbacoa ahumada casera</t>
+  </si>
+  <si>
+    <t>Boquerones</t>
+  </si>
+  <si>
+    <t>Preparados con boquerones frescos marinados en vinagre, ajo y perejil, se sirven bañados en aceite de oliva virgen extra.</t>
+  </si>
+  <si>
+    <t>Los boquerones son un entrante fresco y delicioso.</t>
+  </si>
+  <si>
+    <t>Patatas bravas</t>
+  </si>
+  <si>
+    <t>Preparamos nuestras patatas cortadas en cubos y doradas a la perfección, luego las acompañamos con una salsa bravas casera, elaborada con tomate, pimentón, ajo y otras especias secretas que le dan un toque de sabor único.</t>
+  </si>
+  <si>
+    <t>Un clásico irresistible que combina la textura crujiente de las patatas con una salsa picante</t>
+  </si>
+  <si>
+    <t>Huevos estrellados</t>
+  </si>
+  <si>
+    <t>Acompañamos los huevos estrellados con patatas fritas en tiras finas y crujientes, sazonadas con sal marina y pimienta negra recién molida.</t>
+  </si>
+  <si>
+    <t>Un plato reconfortante y delicioso que destaca por su sencillez y sabor</t>
+  </si>
+  <si>
+    <t>Chivito</t>
+  </si>
+  <si>
+    <t>Preparamos el chivito con filete de carne a la parrilla, que se cocina a la perfección para conservar su jugosidad y sabor.</t>
+  </si>
+  <si>
+    <t>Un plato tradicional de la gastronomía valenciana</t>
+  </si>
+  <si>
+    <t>Brascada de ternera</t>
+  </si>
+  <si>
+    <t>Un plato reconfortante y sabroso que destaca por la jugosidad</t>
+  </si>
+  <si>
+    <t>Preparamos la brascada utilizando cortes de ternera de alta calidad, que se marinan durante horas en una mezcla de hierbas aromáticas, especias y aceite de oliva.</t>
+  </si>
+  <si>
+    <t>Sándwich mixto</t>
+  </si>
+  <si>
+    <t>Entre las rebanadas de pan, colocamos lonchas de jamón cocido y queso fundido, que se derriten en perfecta armonía al ser presionadas en una plancha caliente.</t>
+  </si>
+  <si>
+    <t>Reconfortante que combina ingredientes básicos</t>
+  </si>
+  <si>
+    <t>¡Deliciosa y auténtica!</t>
+  </si>
+  <si>
+    <t>es una pizza italiana tradicionalmente elaborada con ingredientes rústicos como mozzarella, tomate, aceite de oliva y hierbas frescas, cocida en un horno de leña para lograr una textura crujiente y un sabor ahumado característico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La pizza kebab es una variante moderna de la pizza que combina ingredientes típicos de la comida turca, como carne de kebab, cebolla, tomate y salsa de yogur, sobre una base de masa de pizza tradicional. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta pizza ofrece un sabor único y exótico que fusiona lo mejor de la cocina italiana y turca. </t>
+  </si>
+  <si>
+    <t>Conocida por su combinación de sabores intensos y su toque picante.</t>
+  </si>
+  <si>
+    <t>La pizza Acapulco es una variante mexicana de la pizza que incorpora ingredientes típicos de la cocina mexicana</t>
+  </si>
+  <si>
+    <t>destaca por su combinación de sabores clásicos y su aroma delicioso.</t>
+  </si>
+  <si>
+    <t>Una creación característica de la pizzería, que se destaca por su sabor único y su masa esponjosa horneada a la perfección. Es una opción popular entre los amantes de la pizza por su calidad y autenticidad.</t>
+  </si>
+  <si>
+    <t>Una deliciosa opción que combina sabores intensos y texturas suaves. Con una base de pan crujiente, este bocadillo lleva una exquisita combinación de queso brie y queso de cabra, acompañados de cebolla caramelizada y pechuga de pollo o pavo.</t>
+  </si>
+  <si>
+    <t>La elección perfecta para los amantes del queso y los contrastes de sabores.</t>
+  </si>
+  <si>
+    <t>Completa con bacon</t>
+  </si>
+  <si>
+    <t>Un clásico irresistible en el mundo de las hamburguesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consiste en una jugosa hamburguesa de carne de res, acompañada de queso cheddar derretido, crujientes tiras de bacon, lechuga fresca, tomate, cebolla y una generosa porción de salsa de tu elección, todo servido entre dos suaves panes de hamburguesa. </t>
+  </si>
+  <si>
+    <t>Fanta limón</t>
+  </si>
+  <si>
+    <t>Refresco de naranja, perfecto para los días calurosos</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Agua embotellada, ideal para refrescarse.</t>
+  </si>
+  <si>
+    <t>Agua embotellada, ideal para refrescarse y saciar la sed.</t>
+  </si>
+  <si>
+    <t>Fanta naranja</t>
+  </si>
+  <si>
+    <t>Refresco de limón, perfecto para los días calurosos</t>
+  </si>
+  <si>
+    <t>HCIkYuezGRtqQf1l6TDf</t>
+  </si>
+  <si>
+    <t>WPKhiqCuIqyMiHTmZRWY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +252,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,13 +297,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,15 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520585AC-F910-4466-B779-0ED3CF28776B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,121 +666,284 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7.15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6.23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6.12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4.82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6.05</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5.23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -637,15 +954,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE7E31-3C97-4073-9BEF-78D728922286}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A2:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,6 +971,26 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -663,20 +1000,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22441CF5-6897-4364-BFCD-B4B7E62C1ED3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -692,14 +1040,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/datos.xlsx
+++ b/Tools/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besugo\Documents\GitHub\ProyectoFinalDAM\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7E4F0-BE0B-4C9E-9548-FA8A3E81822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D5FDE-402E-407F-8D4A-11B7315CD29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="-90" windowWidth="18375" windowHeight="9945" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
+    <workbookView xWindow="20300" yWindow="-2490" windowWidth="18400" windowHeight="9970" xr2:uid="{0EFE8304-3447-4074-AEC2-A81AEECB6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="productos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>nombre</t>
   </si>
@@ -54,18 +54,6 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>idIngrediente</t>
   </si>
   <si>
@@ -73,165 +61,6 @@
   </si>
   <si>
     <t>idAlergeno</t>
-  </si>
-  <si>
-    <t>Salsa barbacoa</t>
-  </si>
-  <si>
-    <t>Beicon</t>
-  </si>
-  <si>
-    <t>Nata</t>
-  </si>
-  <si>
-    <t>orégano</t>
-  </si>
-  <si>
-    <t>Rustica</t>
-  </si>
-  <si>
-    <t>Kebab</t>
-  </si>
-  <si>
-    <t>Acapulco</t>
-  </si>
-  <si>
-    <t>Titto</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Bibi</t>
-  </si>
-  <si>
-    <t>BBQ Pulled Pork</t>
-  </si>
-  <si>
-    <t>Carne mechada con barbacoa, delicioso</t>
-  </si>
-  <si>
-    <t>Hamburguesa de carne de cerdo hecha a baja temperatura durante 12 horas aderezada con nuestra salsa barbacoa ahumada casera</t>
-  </si>
-  <si>
-    <t>Boquerones</t>
-  </si>
-  <si>
-    <t>Preparados con boquerones frescos marinados en vinagre, ajo y perejil, se sirven bañados en aceite de oliva virgen extra.</t>
-  </si>
-  <si>
-    <t>Los boquerones son un entrante fresco y delicioso.</t>
-  </si>
-  <si>
-    <t>Patatas bravas</t>
-  </si>
-  <si>
-    <t>Preparamos nuestras patatas cortadas en cubos y doradas a la perfección, luego las acompañamos con una salsa bravas casera, elaborada con tomate, pimentón, ajo y otras especias secretas que le dan un toque de sabor único.</t>
-  </si>
-  <si>
-    <t>Un clásico irresistible que combina la textura crujiente de las patatas con una salsa picante</t>
-  </si>
-  <si>
-    <t>Huevos estrellados</t>
-  </si>
-  <si>
-    <t>Acompañamos los huevos estrellados con patatas fritas en tiras finas y crujientes, sazonadas con sal marina y pimienta negra recién molida.</t>
-  </si>
-  <si>
-    <t>Un plato reconfortante y delicioso que destaca por su sencillez y sabor</t>
-  </si>
-  <si>
-    <t>Chivito</t>
-  </si>
-  <si>
-    <t>Preparamos el chivito con filete de carne a la parrilla, que se cocina a la perfección para conservar su jugosidad y sabor.</t>
-  </si>
-  <si>
-    <t>Un plato tradicional de la gastronomía valenciana</t>
-  </si>
-  <si>
-    <t>Brascada de ternera</t>
-  </si>
-  <si>
-    <t>Un plato reconfortante y sabroso que destaca por la jugosidad</t>
-  </si>
-  <si>
-    <t>Preparamos la brascada utilizando cortes de ternera de alta calidad, que se marinan durante horas en una mezcla de hierbas aromáticas, especias y aceite de oliva.</t>
-  </si>
-  <si>
-    <t>Sándwich mixto</t>
-  </si>
-  <si>
-    <t>Entre las rebanadas de pan, colocamos lonchas de jamón cocido y queso fundido, que se derriten en perfecta armonía al ser presionadas en una plancha caliente.</t>
-  </si>
-  <si>
-    <t>Reconfortante que combina ingredientes básicos</t>
-  </si>
-  <si>
-    <t>¡Deliciosa y auténtica!</t>
-  </si>
-  <si>
-    <t>es una pizza italiana tradicionalmente elaborada con ingredientes rústicos como mozzarella, tomate, aceite de oliva y hierbas frescas, cocida en un horno de leña para lograr una textura crujiente y un sabor ahumado característico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La pizza kebab es una variante moderna de la pizza que combina ingredientes típicos de la comida turca, como carne de kebab, cebolla, tomate y salsa de yogur, sobre una base de masa de pizza tradicional. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta pizza ofrece un sabor único y exótico que fusiona lo mejor de la cocina italiana y turca. </t>
-  </si>
-  <si>
-    <t>Conocida por su combinación de sabores intensos y su toque picante.</t>
-  </si>
-  <si>
-    <t>La pizza Acapulco es una variante mexicana de la pizza que incorpora ingredientes típicos de la cocina mexicana</t>
-  </si>
-  <si>
-    <t>destaca por su combinación de sabores clásicos y su aroma delicioso.</t>
-  </si>
-  <si>
-    <t>Una creación característica de la pizzería, que se destaca por su sabor único y su masa esponjosa horneada a la perfección. Es una opción popular entre los amantes de la pizza por su calidad y autenticidad.</t>
-  </si>
-  <si>
-    <t>Una deliciosa opción que combina sabores intensos y texturas suaves. Con una base de pan crujiente, este bocadillo lleva una exquisita combinación de queso brie y queso de cabra, acompañados de cebolla caramelizada y pechuga de pollo o pavo.</t>
-  </si>
-  <si>
-    <t>La elección perfecta para los amantes del queso y los contrastes de sabores.</t>
-  </si>
-  <si>
-    <t>Completa con bacon</t>
-  </si>
-  <si>
-    <t>Un clásico irresistible en el mundo de las hamburguesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consiste en una jugosa hamburguesa de carne de res, acompañada de queso cheddar derretido, crujientes tiras de bacon, lechuga fresca, tomate, cebolla y una generosa porción de salsa de tu elección, todo servido entre dos suaves panes de hamburguesa. </t>
-  </si>
-  <si>
-    <t>Fanta limón</t>
-  </si>
-  <si>
-    <t>Refresco de naranja, perfecto para los días calurosos</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>Agua embotellada, ideal para refrescarse.</t>
-  </si>
-  <si>
-    <t>Agua embotellada, ideal para refrescarse y saciar la sed.</t>
-  </si>
-  <si>
-    <t>Fanta naranja</t>
-  </si>
-  <si>
-    <t>Refresco de limón, perfecto para los días calurosos</t>
-  </si>
-  <si>
-    <t>HCIkYuezGRtqQf1l6TDf</t>
-  </si>
-  <si>
-    <t>WPKhiqCuIqyMiHTmZRWY</t>
   </si>
 </sst>
 </file>
@@ -643,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520585AC-F910-4466-B779-0ED3CF28776B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -674,276 +503,57 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9">
-        <v>6.54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9">
-        <v>7.15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9">
-        <v>6.23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="9">
-        <v>6.12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4.82</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9">
-        <v>6.05</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5.23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -954,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AE7E31-3C97-4073-9BEF-78D728922286}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -973,26 +583,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1002,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22441CF5-6897-4364-BFCD-B4B7E62C1ED3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1013,19 +603,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,10 +633,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
